--- a/biology/Botanique/Curio_(plante)/Curio_(plante).xlsx
+++ b/biology/Botanique/Curio_(plante)/Curio_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curio est un genre de plante à fleurs de la famille des Asteraceae. Les plantes de ce genre sont à feuilles persistantes succulentes avec de longues feuilles striées et des capitules discoïdes dépourvus de fleurons ligulés.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par le botaniste anglais Paul V. Heath et publié dans Calyx 5(4) : 136, 1997[1]. Il contient plus de 20 espèces, tous appartenant autrefois au genre Senecio[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par le botaniste anglais Paul V. Heath et publié dans Calyx 5(4) : 136, 1997. Il contient plus de 20 espèces, tous appartenant autrefois au genre Senecio.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Curio acaulis (L.) P.V.Heath
 Curio archeri (Compton) P.V.Heath
-Curio articulatus (L.) P.V.Heath (Kleinia articulata)[3]
+Curio articulatus (L.) P.V.Heath (Kleinia articulata)
 Curio avasimontanus (Dinter) P.V.Heath
 Curio citriformis (L.) P.V.Heath
 Curio corymbifer (DC.) Eggli
